--- a/group 1.xlsx
+++ b/group 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAFCSP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAFCSP\Documents\GitHub\GGJ2020Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A601BAB-AE03-45AC-96FE-6D5AF7DD9790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF198B2E-9640-4AF8-957E-82862C45A6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D671500-D1DD-4EA6-A660-BB91C98AEC10}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>الاهداف</t>
   </si>
   <si>
-    <t>الفكره</t>
-  </si>
-  <si>
     <t>تنسيق الادوار</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>المنصة</t>
   </si>
 </sst>
 </file>
@@ -252,19 +252,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,155 +602,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -759,37 +759,37 @@
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -797,10 +797,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4">
         <v>2</v>
       </c>
     </row>

--- a/group 1.xlsx
+++ b/group 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAFCSP\Documents\GitHub\GGJ2020Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF198B2E-9640-4AF8-957E-82862C45A6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A0C09-97FE-4CCC-922B-D25312070A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D671500-D1DD-4EA6-A660-BB91C98AEC10}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>الاهداف</t>
   </si>
@@ -143,6 +142,12 @@
   </si>
   <si>
     <t>المنصة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسم اللعبة </t>
+  </si>
+  <si>
+    <t>Dr. Hope</t>
   </si>
 </sst>
 </file>
@@ -255,9 +260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,6 +272,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,34 +591,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC85A88-8120-43E3-875A-11C3CF6F0867}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
     <col min="9" max="9" width="28.453125" customWidth="1"/>
     <col min="10" max="10" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -651,7 +656,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -668,7 +673,7 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="4">
@@ -676,7 +681,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -693,13 +698,13 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -716,13 +721,13 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -740,26 +745,26 @@
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -776,13 +781,13 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -799,9 +804,19 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
